--- a/SMO/TemplateExcel/DuLieuSuaChuaLon.xlsx
+++ b/SMO/TemplateExcel/DuLieuSuaChuaLon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEF43AC-A814-4F67-AE6E-93739F8003FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A7C3D4-383D-4427-A7F2-4E8EEEA02B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -158,17 +158,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,17 +491,17 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.21875" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
@@ -541,12 +538,12 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -571,10 +568,10 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -611,34 +608,34 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
       <c r="C10" s="3"/>
       <c r="E10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="7"/>
       <c r="E12" s="3"/>
       <c r="G12" s="3"/>
     </row>
@@ -1381,9 +1378,7 @@
       <c r="G135" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SMO/TemplateExcel/DuLieuSuaChuaLon.xlsx
+++ b/SMO/TemplateExcel/DuLieuSuaChuaLon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A7C3D4-383D-4427-A7F2-4E8EEEA02B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18E5AB-1A42-478A-9146-DBDEBF33FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Người duyệt:</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Phòng Tiếp thị và Bán sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2023</t>
   </si>
   <si>
     <t>CHỈ TIÊU</t>
@@ -104,12 +101,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -140,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -166,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,10 +494,10 @@
   <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,12 +544,12 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -557,21 +563,19 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
+      <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -608,18 +612,18 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>

--- a/SMO/TemplateExcel/DuLieuSuaChuaLon.xlsx
+++ b/SMO/TemplateExcel/DuLieuSuaChuaLon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18E5AB-1A42-478A-9146-DBDEBF33FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BD0AEE-C89D-4D4D-A4BA-7BC8E31CEF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,17 +494,15 @@
   <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" style="2" customWidth="1"/>

--- a/SMO/TemplateExcel/DuLieuSuaChuaLon.xlsx
+++ b/SMO/TemplateExcel/DuLieuSuaChuaLon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BD0AEE-C89D-4D4D-A4BA-7BC8E31CEF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED20CA1-70B7-455C-BC41-CCAFA0BAE89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,12 +495,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
